--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.4128211269151</v>
+        <v>41.47959733333333</v>
       </c>
       <c r="H2">
-        <v>17.4128211269151</v>
+        <v>124.438792</v>
       </c>
       <c r="I2">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="J2">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10160923502586</v>
+        <v>1.656156333333334</v>
       </c>
       <c r="N2">
-        <v>1.10160923502586</v>
+        <v>4.968469000000001</v>
       </c>
       <c r="O2">
-        <v>0.7378047186693026</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="P2">
-        <v>0.7378047186693026</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="Q2">
-        <v>19.18212456126308</v>
+        <v>68.69669782771645</v>
       </c>
       <c r="R2">
-        <v>19.18212456126308</v>
+        <v>618.270280449448</v>
       </c>
       <c r="S2">
-        <v>0.01075295713991431</v>
+        <v>0.02086684578056154</v>
       </c>
       <c r="T2">
-        <v>0.01075295713991431</v>
+        <v>0.02086684578056154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.4128211269151</v>
+        <v>41.47959733333333</v>
       </c>
       <c r="H3">
-        <v>17.4128211269151</v>
+        <v>124.438792</v>
       </c>
       <c r="I3">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="J3">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.391481290354232</v>
+        <v>0.5648773333333333</v>
       </c>
       <c r="N3">
-        <v>0.391481290354232</v>
+        <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2621952813306974</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="P3">
-        <v>0.2621952813306974</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="Q3">
-        <v>6.816793683472157</v>
+        <v>23.43088432939378</v>
       </c>
       <c r="R3">
-        <v>6.816793683472157</v>
+        <v>210.877958964544</v>
       </c>
       <c r="S3">
-        <v>0.003821301966625751</v>
+        <v>0.007117207453403568</v>
       </c>
       <c r="T3">
-        <v>0.003821301966625751</v>
+        <v>0.007117207453403565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1109.38072997686</v>
+        <v>41.47959733333333</v>
       </c>
       <c r="H4">
-        <v>1109.38072997686</v>
+        <v>124.438792</v>
       </c>
       <c r="I4">
-        <v>0.9285343304591651</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="J4">
-        <v>0.9285343304591651</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.10160923502586</v>
+        <v>0.4713726666666667</v>
       </c>
       <c r="N4">
-        <v>1.10160923502586</v>
+        <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.7378047186693026</v>
+        <v>0.1750748617810164</v>
       </c>
       <c r="P4">
-        <v>0.7378047186693026</v>
+        <v>0.1750748617810165</v>
       </c>
       <c r="Q4">
-        <v>1222.104057302239</v>
+        <v>19.55234840727289</v>
       </c>
       <c r="R4">
-        <v>1222.104057302239</v>
+        <v>175.971135665456</v>
       </c>
       <c r="S4">
-        <v>0.6850770104592137</v>
+        <v>0.005939089530701738</v>
       </c>
       <c r="T4">
-        <v>0.6850770104592137</v>
+        <v>0.005939089530701738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1109.38072997686</v>
+        <v>1112.909261</v>
       </c>
       <c r="H5">
-        <v>1109.38072997686</v>
+        <v>3338.727783</v>
       </c>
       <c r="I5">
-        <v>0.9285343304591651</v>
+        <v>0.9101674599595009</v>
       </c>
       <c r="J5">
-        <v>0.9285343304591651</v>
+        <v>0.9101674599595008</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.391481290354232</v>
+        <v>1.656156333333334</v>
       </c>
       <c r="N5">
-        <v>0.391481290354232</v>
+        <v>4.968469000000001</v>
       </c>
       <c r="O5">
-        <v>0.2621952813306974</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="P5">
-        <v>0.2621952813306974</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="Q5">
-        <v>434.301799665461</v>
+        <v>1843.15172103047</v>
       </c>
       <c r="R5">
-        <v>434.301799665461</v>
+        <v>16588.36548927423</v>
       </c>
       <c r="S5">
-        <v>0.2434573199999516</v>
+        <v>0.5598633402929302</v>
       </c>
       <c r="T5">
-        <v>0.2434573199999516</v>
+        <v>0.5598633402929301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.97189114784889</v>
+        <v>1112.909261</v>
       </c>
       <c r="H6">
-        <v>67.97189114784889</v>
+        <v>3338.727783</v>
       </c>
       <c r="I6">
-        <v>0.0568914104342948</v>
+        <v>0.9101674599595009</v>
       </c>
       <c r="J6">
-        <v>0.0568914104342948</v>
+        <v>0.9101674599595008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.10160923502586</v>
+        <v>0.5648773333333333</v>
       </c>
       <c r="N6">
-        <v>1.10160923502586</v>
+        <v>1.694632</v>
       </c>
       <c r="O6">
-        <v>0.7378047186693026</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="P6">
-        <v>0.7378047186693026</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="Q6">
-        <v>74.87846301064285</v>
+        <v>628.6572155956507</v>
       </c>
       <c r="R6">
-        <v>74.87846301064285</v>
+        <v>5657.914940360855</v>
       </c>
       <c r="S6">
-        <v>0.0419747510701747</v>
+        <v>0.1909566774165822</v>
       </c>
       <c r="T6">
-        <v>0.0419747510701747</v>
+        <v>0.1909566774165821</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.97189114784889</v>
+        <v>1112.909261</v>
       </c>
       <c r="H7">
-        <v>67.97189114784889</v>
+        <v>3338.727783</v>
       </c>
       <c r="I7">
-        <v>0.0568914104342948</v>
+        <v>0.9101674599595009</v>
       </c>
       <c r="J7">
-        <v>0.0568914104342948</v>
+        <v>0.9101674599595008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.391481290354232</v>
+        <v>0.4713726666666667</v>
       </c>
       <c r="N7">
-        <v>0.391481290354232</v>
+        <v>1.414118</v>
       </c>
       <c r="O7">
-        <v>0.2621952813306974</v>
+        <v>0.1750748617810164</v>
       </c>
       <c r="P7">
-        <v>0.2621952813306974</v>
+        <v>0.1750748617810165</v>
       </c>
       <c r="Q7">
-        <v>26.60972365437728</v>
+        <v>524.5950061155994</v>
       </c>
       <c r="R7">
-        <v>26.60972365437728</v>
+        <v>4721.355055040394</v>
       </c>
       <c r="S7">
-        <v>0.0149166593641201</v>
+        <v>0.1593474422499884</v>
       </c>
       <c r="T7">
-        <v>0.0149166593641201</v>
+        <v>0.1593474422499885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>68.36333833333333</v>
+      </c>
+      <c r="H8">
+        <v>205.090015</v>
+      </c>
+      <c r="I8">
+        <v>0.05590939727583234</v>
+      </c>
+      <c r="J8">
+        <v>0.05590939727583233</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.656156333333334</v>
+      </c>
+      <c r="N8">
+        <v>4.968469000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="P8">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="Q8">
+        <v>113.2203757485595</v>
+      </c>
+      <c r="R8">
+        <v>1018.983381737035</v>
+      </c>
+      <c r="S8">
+        <v>0.0343910580081656</v>
+      </c>
+      <c r="T8">
+        <v>0.0343910580081656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>68.36333833333333</v>
+      </c>
+      <c r="H9">
+        <v>205.090015</v>
+      </c>
+      <c r="I9">
+        <v>0.05590939727583234</v>
+      </c>
+      <c r="J9">
+        <v>0.05590939727583233</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5648773333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.694632</v>
+      </c>
+      <c r="O9">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="P9">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="Q9">
+        <v>38.61690025549778</v>
+      </c>
+      <c r="R9">
+        <v>347.55210229948</v>
+      </c>
+      <c r="S9">
+        <v>0.01173000926734044</v>
+      </c>
+      <c r="T9">
+        <v>0.01173000926734044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>68.36333833333333</v>
+      </c>
+      <c r="H10">
+        <v>205.090015</v>
+      </c>
+      <c r="I10">
+        <v>0.05590939727583234</v>
+      </c>
+      <c r="J10">
+        <v>0.05590939727583233</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4713726666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.414118</v>
+      </c>
+      <c r="O10">
+        <v>0.1750748617810164</v>
+      </c>
+      <c r="P10">
+        <v>0.1750748617810165</v>
+      </c>
+      <c r="Q10">
+        <v>32.22460909241889</v>
+      </c>
+      <c r="R10">
+        <v>290.02148183177</v>
+      </c>
+      <c r="S10">
+        <v>0.009788330000326284</v>
+      </c>
+      <c r="T10">
+        <v>0.009788330000326284</v>
       </c>
     </row>
   </sheetData>
